--- a/output/2023-03-17/deployment_checklist_20230317.xlsx
+++ b/output/2023-03-17/deployment_checklist_20230317.xlsx
@@ -19,15 +19,13 @@
     <sheet name="Checklist_ADLS_MVP3" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Checklist_ADLS_MVP4" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Checklist_ADLS_MVP6" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Checklist_DDL_MVP1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Checklist_DDL_MVP2" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Checklist_ADLS'!$A$1:$AB$1</definedName>
   </definedNames>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -24457,773 +24455,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Container</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Git_Path</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Note UAT Deploy Date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VIEWS/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCFDTLR_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLR_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCPIHSST_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCPIHSST_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCVISAR_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCVISAR_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_MCURBAL3_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_MCURBAL3_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_BPTRN_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_BPTRN_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_MTLOG_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_MTLOG_1_0_T1.sql</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0_T1.sql</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Container</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Git_Path</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Note UAT Deploy Date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VIEWS/VEUIPS/VIPS_CUSTOC.sql</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VEUIPS/VIPS_CUSTOC.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VIEWS/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/output/2023-03-17/deployment_checklist_20230317.xlsx
+++ b/output/2023-03-17/deployment_checklist_20230317.xlsx
@@ -19,13 +19,15 @@
     <sheet name="Checklist_ADLS_MVP3" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Checklist_ADLS_MVP4" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="Checklist_ADLS_MVP6" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Checklist_DDL_MVP1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Checklist_DDL_MVP2" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Checklist_ADLS'!$A$1:$AB$1</definedName>
   </definedNames>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -24455,6 +24457,773 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Container</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Git_Path</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Note UAT Deploy Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VIEWS/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCFDTLR_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLR_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCPIHSST_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCPIHSST_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCVISAR_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCVISAR_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_MCURBAL3_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_MCURBAL3_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_BPTRN_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_BPTRN_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_MTLOG_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_MTLOG_1_0_T1.sql</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0_T1.sql</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Container</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Git_Path</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Note UAT Deploy Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VIEWS/VEUIPS/VIPS_CUSTOC.sql</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VEUIPS/VIPS_CUSTOC.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VIEWS/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/output/2023-03-17/deployment_checklist_20230317.xlsx
+++ b/output/2023-03-17/deployment_checklist_20230317.xlsx
@@ -15,12 +15,12 @@
     <sheet name="U99_PL_REGISTER_CONFIG" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="U02_TABLE_DEFINITION" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Checklist_ADLS_MVP1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Checklist_ADLS_MVP2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Checklist_ADLS_MVP3" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Checklist_ADLS_MVP4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Checklist_ADLS_MVP6" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Checklist_DDL_MVP1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Checklist_DDL_MVP2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Checklist_DDL_MVP1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Checklist_ADLS_MVP2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Checklist_DDL_MVP2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Checklist_ADLS_MVP3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Checklist_ADLS_MVP4" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Checklist_ADLS_MVP6" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Checklist_ADLS'!$A$1:$AB$1</definedName>
@@ -19583,6 +19583,673 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Container</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Git_Path</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Note UAT Deploy Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VIEWS/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCFDTLR_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLR_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCPIHSST_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCPIHSST_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCVISAR_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCVISAR_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2K_MCURBAL3_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2K_MCURBAL3_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_BPTRN_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_BPTRN_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_MTLOG_1_0.sql</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VIEWS/VSGMF/GN_MTLOG_1_0_T1.sql</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0_T1.sql</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20398,7 +21065,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Container</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Git_Path</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Note UAT Deploy Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>VIEWS/VEUIPS/VIPS_CUSTOC.sql</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VEUIPS/VIPS_CUSTOC.sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>scbedwseasta001adlsuat</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>edw-ctn-landing</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>VIEWS/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ddl_script_replace/process_migration/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21333,7 +22100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22154,7 +22921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24449,773 +25216,6 @@
       <c r="H60" t="inlineStr">
         <is>
           <t>scbedwseasta001adlsuat,edw-ctn-landing,20230317/utilities/import/U99_PL_REGISTER_CONFIG/MVP6/REGISTER_CONFIG_SYSTEM_CMS.xlsx,utilities/import/U99_PL_REGISTER_CONFIG/REGISTER_CONFIG_SYSTEM_CMS.xlsx</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Container</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Git_Path</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Note UAT Deploy Date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VIEWS/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VTXEDW/VS1_EVENTDETAIL_01.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATMI_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_ATM_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_CDM_R_TRANSAC_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_MUL_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATM_HPC_TRANSACTION_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/ATS_REPORT_FILE_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCFDTLR_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLR_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCPIHSST_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCPIHSST_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCVISAR_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCVISAR_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_BCFDTLRU_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2K_MCURBAL3_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2K_MCURBAL3_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_ND_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBC032_T_SD_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECOM1_T_ND_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MF2ECMS1_T_SD_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_MFBCIPP_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_PCOEC_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_BCOMC_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/B2MTX_POLSB101_T_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_BPTRN_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_BPTRN_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_MTLOG_1_0.sql</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>VIEWS/VSGMF/GN_MTLOG_1_0_T1.sql</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VSGMF/GN_MTLOG_1_0_T1.sql</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Storage</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Container</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Git_Path</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Note UAT Deploy Date</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>VIEWS/VEUIPS/VIPS_CUSTOC.sql</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VEUIPS/VIPS_CUSTOC.sql</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>scbedwseasta001adlsuat</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>edw-ctn-landing</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>VIEWS/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ddl_script_replace/process_migration/VTPBCM/TVBCM_PAYROLL_PA_ATS_CN.sql</t>
         </is>
       </c>
     </row>
